--- a/TestFiles/TestExcel2.xlsx
+++ b/TestFiles/TestExcel2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Remya Git Repo\ExcelReader_CSharp_Automation\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045C093B-E4F8-4E09-B000-60199E4F6FAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E09112-F564-4524-A3C1-1384DDE1B487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Vehicle</t>
   </si>
   <si>
-    <t>wheels</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
@@ -43,13 +40,16 @@
   </si>
   <si>
     <t>Auto rikshaw</t>
+  </si>
+  <si>
+    <t>Wheels</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +57,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -93,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,7 +394,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,16 +404,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -406,7 +421,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -414,7 +429,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -422,7 +437,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -430,5 +445,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>